--- a/biology/Botanique/Parc_Maruyama/Parc_Maruyama.xlsx
+++ b/biology/Botanique/Parc_Maruyama/Parc_Maruyama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Maruyama (円山公園, Maruyama kōen?) est un jardin public situé à Kyoto, au Japon.
 Il est connu pour être le principal lieu d'observation des fleurs de cerisier à Kyoto et est très fréquenté au mois d'avril, époque de la floraison.
@@ -514,9 +526,11 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc Maruyama, désigné patrimoine culturel du Japon, est recensé comme endroit de beauté pittoresque[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc Maruyama, désigné patrimoine culturel du Japon, est recensé comme endroit de beauté pittoresque.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Alentours</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Juste au nord, et attenant du parc, se trouve le grand temple bouddhique Chion, suivi par le plus petit temple Shōren.
 </t>
@@ -576,7 +592,9 @@
           <t>Accès</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L’accès principal au parc se fait par le sanctuaire shinto Yasaka, qui se trouve à l'extrémité est de la rue Shijō (en) dans le quartier de Gion.
 </t>
@@ -607,7 +625,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Maruyama Park » (voir la liste des auteurs).</t>
         </is>
